--- a/content/dadesref/entitats/Regions_sanitaries.xlsx
+++ b/content/dadesref/entitats/Regions_sanitaries.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/llorenc_franco_gencat_cat/Documents/01 - CTTI/Gestió interna/Treball remot/2019 - Dades de referència/__C6/01.CATaleg/10.Modelatge_OIAD/76.Regions_sanitaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{D5527FCE-5BEF-45CD-A1DC-BAF5C38AC7CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9E51AF61-6340-4617-B105-ED4F2606E511}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{D5527FCE-5BEF-45CD-A1DC-BAF5C38AC7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA7994EB-A099-4580-AC05-9C69C3831BCE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions_sanitàries" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Codi</t>
   </si>
@@ -69,31 +72,10 @@
     <t>Regions sanitàries</t>
   </si>
   <si>
-    <t>RS11</t>
-  </si>
-  <si>
     <t>Alt Pirineu i Aran</t>
   </si>
   <si>
-    <t>RS12</t>
-  </si>
-  <si>
-    <t>RS13</t>
-  </si>
-  <si>
-    <t>RS14</t>
-  </si>
-  <si>
-    <t>RS15</t>
-  </si>
-  <si>
-    <t>RS16</t>
-  </si>
-  <si>
-    <t>RS17</t>
-  </si>
-  <si>
-    <t>RS99</t>
+    <t>NC</t>
   </si>
 </sst>
 </file>
@@ -198,17 +180,17 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -216,6 +198,21 @@
     <cellStyle name="Normal_Hoja2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -267,21 +264,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <font>
@@ -320,11 +302,93 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="metadades"/>
+      <sheetName val="dades"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>Alt Pirineu i Aran</v>
+          </cell>
+          <cell r="C4">
+            <v>71</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>Barcelona</v>
+          </cell>
+          <cell r="C5">
+            <v>78</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>Camp de Tarragona</v>
+          </cell>
+          <cell r="C6">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>Catalunya Central</v>
+          </cell>
+          <cell r="C7">
+            <v>67</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>Girona</v>
+          </cell>
+          <cell r="C8">
+            <v>64</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>Lleida</v>
+          </cell>
+          <cell r="C9">
+            <v>61</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>Terres de l'Ebre</v>
+          </cell>
+          <cell r="C10">
+            <v>63</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>No consta</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>Altres/Diversos</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:B11" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codi" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nom" dataDxfId="0" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codi" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nom" dataDxfId="1" dataCellStyle="Normal_Hoja2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -613,7 +677,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -621,56 +685,63 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7">
+        <f>VLOOKUP(Tabla1[[#This Row],[Nom]],[1]dades!$B$4:$C$12,2,FALSE)</f>
+        <v>71</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
+      <c r="A5" s="7">
+        <f>VLOOKUP(Tabla1[[#This Row],[Nom]],[1]dades!$B$4:$C$12,2,FALSE)</f>
+        <v>78</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>14</v>
+      <c r="A6" s="7">
+        <f>VLOOKUP(Tabla1[[#This Row],[Nom]],[1]dades!$B$4:$C$12,2,FALSE)</f>
+        <v>62</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>15</v>
+      <c r="A7" s="7">
+        <f>VLOOKUP(Tabla1[[#This Row],[Nom]],[1]dades!$B$4:$C$12,2,FALSE)</f>
+        <v>67</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>16</v>
+      <c r="A8" s="7">
+        <f>VLOOKUP(Tabla1[[#This Row],[Nom]],[1]dades!$B$4:$C$12,2,FALSE)</f>
+        <v>64</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>17</v>
+      <c r="A9" s="7">
+        <f>VLOOKUP(Tabla1[[#This Row],[Nom]],[1]dades!$B$4:$C$12,2,FALSE)</f>
+        <v>61</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>18</v>
+      <c r="A10" s="7">
+        <f>VLOOKUP(Tabla1[[#This Row],[Nom]],[1]dades!$B$4:$C$12,2,FALSE)</f>
+        <v>63</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>8</v>
@@ -678,9 +749,9 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -695,24 +766,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008DEA6A335D5DB4C80041820F961B988" ma:contentTypeVersion="1" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="367d9f143660f58e8d16a0b6b83542cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="572ac8b42f3ef587f96d641b4f387de3" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -844,31 +897,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCF087E-4840-42B0-AE1E-9DBAC680D690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -884,4 +931,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/content/dadesref/entitats/Regions_sanitaries.xlsx
+++ b/content/dadesref/entitats/Regions_sanitaries.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/llorenc_franco_gencat_cat/Documents/01 - CTTI/Gestió interna/Treball remot/2019 - Dades de referència/__C6/01.CATaleg/10.Modelatge_OIAD/76.Regions_sanitaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{D5527FCE-5BEF-45CD-A1DC-BAF5C38AC7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA7994EB-A099-4580-AC05-9C69C3831BCE}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{D5527FCE-5BEF-45CD-A1DC-BAF5C38AC7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{266055C5-2BEA-4398-B31C-DFBABD193B07}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regions_sanitàries" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -51,31 +48,31 @@
     <t xml:space="preserve">Nom entitat: </t>
   </si>
   <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Girona</t>
-  </si>
-  <si>
-    <t>Lleida</t>
-  </si>
-  <si>
-    <t>Camp de Tarragona</t>
-  </si>
-  <si>
-    <t>Terres de l'Ebre</t>
-  </si>
-  <si>
-    <t>Catalunya Central</t>
-  </si>
-  <si>
     <t>Regions sanitàries</t>
   </si>
   <si>
-    <t>Alt Pirineu i Aran</t>
-  </si>
-  <si>
     <t>NC</t>
+  </si>
+  <si>
+    <t>ALT PIRINEU i ARAN</t>
+  </si>
+  <si>
+    <t>BARCELONA</t>
+  </si>
+  <si>
+    <t>CAMP DE TARRAGONA</t>
+  </si>
+  <si>
+    <t>CATALUNYA CENTRAL</t>
+  </si>
+  <si>
+    <t>GIRONA</t>
+  </si>
+  <si>
+    <t>LLEIDA</t>
+  </si>
+  <si>
+    <t>TERRES DE L'EBRE</t>
   </si>
 </sst>
 </file>
@@ -200,21 +197,6 @@
   <dxfs count="4">
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -250,6 +232,21 @@
           <color indexed="22"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -302,93 +299,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="metadades"/>
-      <sheetName val="dades"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>Alt Pirineu i Aran</v>
-          </cell>
-          <cell r="C4">
-            <v>71</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>Barcelona</v>
-          </cell>
-          <cell r="C5">
-            <v>78</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>Camp de Tarragona</v>
-          </cell>
-          <cell r="C6">
-            <v>62</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>Catalunya Central</v>
-          </cell>
-          <cell r="C7">
-            <v>67</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>Girona</v>
-          </cell>
-          <cell r="C8">
-            <v>64</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>Lleida</v>
-          </cell>
-          <cell r="C9">
-            <v>61</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>Terres de l'Ebre</v>
-          </cell>
-          <cell r="C10">
-            <v>63</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>No consta</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>Altres/Diversos</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:B11" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codi" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nom" dataDxfId="1" dataCellStyle="Normal_Hoja2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codi" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nom" dataDxfId="0" dataCellStyle="Normal_Hoja2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -664,7 +579,7 @@
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
@@ -673,7 +588,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -686,34 +601,30 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
-        <f>VLOOKUP(Tabla1[[#This Row],[Nom]],[1]dades!$B$4:$C$12,2,FALSE)</f>
         <v>71</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
-        <f>VLOOKUP(Tabla1[[#This Row],[Nom]],[1]dades!$B$4:$C$12,2,FALSE)</f>
         <v>78</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
-        <f>VLOOKUP(Tabla1[[#This Row],[Nom]],[1]dades!$B$4:$C$12,2,FALSE)</f>
         <v>62</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
-        <f>VLOOKUP(Tabla1[[#This Row],[Nom]],[1]dades!$B$4:$C$12,2,FALSE)</f>
         <v>67</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -722,34 +633,31 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
-        <f>VLOOKUP(Tabla1[[#This Row],[Nom]],[1]dades!$B$4:$C$12,2,FALSE)</f>
         <v>64</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
-        <f>VLOOKUP(Tabla1[[#This Row],[Nom]],[1]dades!$B$4:$C$12,2,FALSE)</f>
         <v>61</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
-        <f>VLOOKUP(Tabla1[[#This Row],[Nom]],[1]dades!$B$4:$C$12,2,FALSE)</f>
         <v>63</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>2</v>
@@ -766,6 +674,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008DEA6A335D5DB4C80041820F961B988" ma:contentTypeVersion="1" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="367d9f143660f58e8d16a0b6b83542cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="572ac8b42f3ef587f96d641b4f387de3" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -897,7 +814,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -906,16 +823,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCF087E-4840-42B0-AE1E-9DBAC680D690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -933,7 +849,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -947,12 +863,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>